--- a/database/industries/palayesh/shavan/product/quarterly.xlsx
+++ b/database/industries/palayesh/shavan/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB55BAAE-70D7-4118-AEDD-14EAE132DD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -91,12 +90,6 @@
     <t>گاز مایع</t>
   </si>
   <si>
-    <t>بنزین معمولی</t>
-  </si>
-  <si>
-    <t>بنزین ایزومریت</t>
-  </si>
-  <si>
     <t>نفتای سنگین</t>
   </si>
   <si>
@@ -118,9 +111,6 @@
     <t>نفتای شیرین</t>
   </si>
   <si>
-    <t>بنزین یورو 5</t>
-  </si>
-  <si>
     <t>گوگرد .</t>
   </si>
   <si>
@@ -128,9 +118,6 @@
   </si>
   <si>
     <t>نفتای سنگین ترش</t>
-  </si>
-  <si>
-    <t>بنزین معمولی و یورو 5</t>
   </si>
   <si>
     <t>نفتای کامل</t>
@@ -174,11 +161,14 @@
   <si>
     <t>سود ناخالص</t>
   </si>
+  <si>
+    <t>بنزین</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,10 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -999,7 +991,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
@@ -1038,7 +1030,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>16</v>
@@ -1077,7 +1069,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
@@ -1116,7 +1108,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -1155,7 +1147,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
@@ -1194,7 +1186,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1231,7 +1223,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>16</v>
@@ -1270,7 +1262,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>16</v>
@@ -1309,7 +1301,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>16</v>
@@ -1348,7 +1340,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>16</v>
@@ -1387,7 +1379,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>16</v>
@@ -1426,7 +1418,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>16</v>
@@ -1465,7 +1457,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>16</v>
@@ -1504,7 +1496,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>16</v>
@@ -1543,7 +1535,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
@@ -1582,7 +1574,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1664,7 +1656,7 @@
     </row>
     <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1872,10 +1864,10 @@
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1950,7 +1942,7 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>16</v>
@@ -1989,7 +1981,7 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>16</v>
@@ -2028,7 +2020,7 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>16</v>
@@ -2067,7 +2059,7 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>16</v>
@@ -2106,7 +2098,7 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>16</v>
@@ -2145,7 +2137,7 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2182,7 +2174,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>16</v>
@@ -2221,7 +2213,7 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>16</v>
@@ -2260,7 +2252,7 @@
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>16</v>
@@ -2299,7 +2291,7 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>16</v>
@@ -2338,7 +2330,7 @@
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>16</v>
@@ -2377,7 +2369,7 @@
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>16</v>
@@ -2416,7 +2408,7 @@
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>16</v>
@@ -2455,7 +2447,7 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>16</v>
@@ -2494,7 +2486,7 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>16</v>
@@ -2533,7 +2525,7 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -2615,7 +2607,7 @@
     </row>
     <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2670,7 +2662,7 @@
         <v>15</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
@@ -2709,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
@@ -2748,7 +2740,7 @@
         <v>19</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
@@ -2787,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -2823,10 +2815,10 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2865,7 +2857,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
@@ -2901,10 +2893,10 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
@@ -2940,10 +2932,10 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
@@ -2979,10 +2971,10 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -3018,10 +3010,10 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
@@ -3057,10 +3049,10 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
@@ -3096,10 +3088,10 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
@@ -3135,10 +3127,10 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
@@ -3174,10 +3166,10 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
@@ -3213,10 +3205,10 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
@@ -3252,10 +3244,10 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
@@ -3291,10 +3283,10 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
@@ -3330,10 +3322,10 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
@@ -3369,10 +3361,10 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
@@ -3408,10 +3400,10 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
@@ -3447,10 +3439,10 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -3486,7 +3478,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
@@ -3568,7 +3560,7 @@
     </row>
     <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B88" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3623,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -3662,7 +3654,7 @@
         <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
@@ -3701,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
@@ -3740,7 +3732,7 @@
         <v>21</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
@@ -3776,10 +3768,10 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
@@ -3818,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
@@ -3854,10 +3846,10 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
@@ -3893,10 +3885,10 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -3932,10 +3924,10 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
@@ -3971,10 +3963,10 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
@@ -4010,10 +4002,10 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
@@ -4049,10 +4041,10 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
@@ -4088,10 +4080,10 @@
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
@@ -4127,10 +4119,10 @@
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
@@ -4166,10 +4158,10 @@
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -4205,10 +4197,10 @@
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
@@ -4244,10 +4236,10 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
@@ -4283,10 +4275,10 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
@@ -4367,7 +4359,7 @@
     </row>
     <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4422,7 +4414,7 @@
         <v>15</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
@@ -4461,7 +4453,7 @@
         <v>18</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
@@ -4500,7 +4492,7 @@
         <v>19</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
@@ -4539,7 +4531,7 @@
         <v>21</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
@@ -4575,10 +4567,10 @@
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
@@ -4617,7 +4609,7 @@
         <v>22</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
@@ -4653,10 +4645,10 @@
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
@@ -4692,10 +4684,10 @@
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
@@ -4731,10 +4723,10 @@
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
@@ -4770,10 +4762,10 @@
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
@@ -4809,10 +4801,10 @@
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
@@ -4848,10 +4840,10 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
@@ -4887,10 +4879,10 @@
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
@@ -4926,10 +4918,10 @@
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
@@ -4965,10 +4957,10 @@
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
@@ -5004,10 +4996,10 @@
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
@@ -5043,10 +5035,10 @@
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
@@ -5082,7 +5074,7 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
@@ -5164,7 +5156,7 @@
     </row>
     <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -5219,7 +5211,7 @@
         <v>15</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
@@ -5258,7 +5250,7 @@
         <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
@@ -5297,7 +5289,7 @@
         <v>19</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
@@ -5336,7 +5328,7 @@
         <v>21</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
@@ -5372,10 +5364,10 @@
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
@@ -5414,7 +5406,7 @@
         <v>22</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
@@ -5450,10 +5442,10 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
@@ -5489,10 +5481,10 @@
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
@@ -5528,10 +5520,10 @@
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9">
@@ -5567,10 +5559,10 @@
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
@@ -5606,10 +5598,10 @@
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
@@ -5645,10 +5637,10 @@
     </row>
     <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
@@ -5684,10 +5676,10 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
@@ -5723,10 +5715,10 @@
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
@@ -5762,10 +5754,10 @@
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
@@ -5801,10 +5793,10 @@
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
@@ -5840,10 +5832,10 @@
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
@@ -5879,7 +5871,7 @@
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>

--- a/database/industries/palayesh/shavan/product/quarterly.xlsx
+++ b/database/industries/palayesh/shavan/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C725F4EB-67AA-4B8C-8C10-3EF0C34F7FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -66,6 +64,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -90,6 +91,12 @@
     <t>گاز مایع</t>
   </si>
   <si>
+    <t>بنزین معمولی</t>
+  </si>
+  <si>
+    <t>بنزین ایزومریت</t>
+  </si>
+  <si>
     <t>نفتای سنگین</t>
   </si>
   <si>
@@ -111,6 +118,9 @@
     <t>نفتای شیرین</t>
   </si>
   <si>
+    <t>بنزین یورو 5</t>
+  </si>
+  <si>
     <t>گوگرد .</t>
   </si>
   <si>
@@ -118,6 +128,9 @@
   </si>
   <si>
     <t>نفتای سنگین ترش</t>
+  </si>
+  <si>
+    <t>بنزین معمولی و یورو 5</t>
   </si>
   <si>
     <t>نفتای کامل</t>
@@ -161,14 +174,11 @@
   <si>
     <t>سود ناخالص</t>
   </si>
-  <si>
-    <t>بنزین</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,19 +627,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +652,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +669,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,7 +686,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +701,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +718,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -727,7 +735,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -742,7 +750,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -779,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -794,7 +802,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -817,11 +825,11 @@
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>17</v>
@@ -833,7 +841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -842,37 +850,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>244361</v>
+        <v>399856</v>
       </c>
       <c r="F11" s="11">
-        <v>399856</v>
+        <v>151315</v>
       </c>
       <c r="G11" s="11">
-        <v>151315</v>
+        <v>163436</v>
       </c>
       <c r="H11" s="11">
-        <v>163436</v>
+        <v>152622</v>
       </c>
       <c r="I11" s="11">
-        <v>152622</v>
+        <v>163931</v>
       </c>
       <c r="J11" s="11">
-        <v>163931</v>
+        <v>155047</v>
       </c>
       <c r="K11" s="11">
-        <v>155047</v>
+        <v>158309</v>
       </c>
       <c r="L11" s="11">
-        <v>158309</v>
+        <v>151698</v>
       </c>
       <c r="M11" s="11">
-        <v>151698</v>
+        <v>136660</v>
       </c>
       <c r="N11" s="11">
-        <v>136660</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100537</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -911,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -920,37 +928,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>197841</v>
+        <v>223352</v>
       </c>
       <c r="F13" s="11">
-        <v>223352</v>
+        <v>226990</v>
       </c>
       <c r="G13" s="11">
-        <v>226990</v>
+        <v>227152</v>
       </c>
       <c r="H13" s="11">
-        <v>227152</v>
+        <v>225074</v>
       </c>
       <c r="I13" s="11">
-        <v>225074</v>
+        <v>222723</v>
       </c>
       <c r="J13" s="11">
-        <v>222723</v>
+        <v>212820</v>
       </c>
       <c r="K13" s="11">
-        <v>212820</v>
+        <v>219041</v>
       </c>
       <c r="L13" s="11">
-        <v>219041</v>
+        <v>219614</v>
       </c>
       <c r="M13" s="11">
-        <v>219614</v>
+        <v>208400</v>
       </c>
       <c r="N13" s="11">
-        <v>208400</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136502</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -959,78 +967,78 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>11473</v>
+        <v>10110</v>
       </c>
       <c r="F14" s="9">
-        <v>10110</v>
+        <v>12966</v>
       </c>
       <c r="G14" s="9">
-        <v>12966</v>
+        <v>16817</v>
       </c>
       <c r="H14" s="9">
-        <v>16817</v>
+        <v>13563</v>
       </c>
       <c r="I14" s="9">
-        <v>13563</v>
+        <v>9868</v>
       </c>
       <c r="J14" s="9">
-        <v>9868</v>
+        <v>9013</v>
       </c>
       <c r="K14" s="9">
-        <v>9013</v>
+        <v>7472</v>
       </c>
       <c r="L14" s="9">
-        <v>7472</v>
+        <v>9860</v>
       </c>
       <c r="M14" s="9">
-        <v>9860</v>
+        <v>7913</v>
       </c>
       <c r="N14" s="9">
-        <v>7913</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>295226</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11">
         <v>660326</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11">
+        <v>439</v>
       </c>
       <c r="I15" s="11">
-        <v>439</v>
+        <v>-439</v>
       </c>
       <c r="J15" s="11">
-        <v>-439</v>
+        <v>536</v>
       </c>
       <c r="K15" s="11">
-        <v>536</v>
+        <v>270648</v>
       </c>
       <c r="L15" s="11">
-        <v>270648</v>
+        <v>266546</v>
       </c>
       <c r="M15" s="11">
-        <v>266546</v>
+        <v>260468</v>
       </c>
       <c r="N15" s="11">
-        <v>260468</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>197565</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>16</v>
@@ -1067,9 +1075,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>16</v>
@@ -1106,9 +1114,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>16</v>
@@ -1145,48 +1153,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>68404</v>
+        <v>98160</v>
       </c>
       <c r="F19" s="11">
-        <v>98160</v>
+        <v>118943</v>
       </c>
       <c r="G19" s="11">
-        <v>118943</v>
+        <v>138696</v>
       </c>
       <c r="H19" s="11">
-        <v>138696</v>
+        <v>152006</v>
       </c>
       <c r="I19" s="11">
-        <v>152006</v>
+        <v>161658</v>
       </c>
       <c r="J19" s="11">
-        <v>161658</v>
+        <v>104774</v>
       </c>
       <c r="K19" s="11">
-        <v>104774</v>
+        <v>80810</v>
       </c>
       <c r="L19" s="11">
-        <v>80810</v>
+        <v>84273</v>
       </c>
       <c r="M19" s="11">
-        <v>84273</v>
+        <v>94104</v>
       </c>
       <c r="N19" s="11">
-        <v>94104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46619</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1199,8 +1207,8 @@
       <c r="G20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -1221,9 +1229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>16</v>
@@ -1260,9 +1268,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>16</v>
@@ -1299,9 +1307,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>16</v>
@@ -1322,11 +1330,11 @@
       <c r="I23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>17</v>
@@ -1338,9 +1346,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>16</v>
@@ -1361,11 +1369,11 @@
       <c r="I24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>17</v>
@@ -1377,48 +1385,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>1441</v>
+        <v>233</v>
       </c>
       <c r="F25" s="11">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="G25" s="11">
-        <v>107</v>
+        <v>1004</v>
       </c>
       <c r="H25" s="11">
-        <v>1004</v>
+        <v>920</v>
       </c>
       <c r="I25" s="11">
-        <v>920</v>
+        <v>622</v>
       </c>
       <c r="J25" s="11">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="K25" s="11">
-        <v>670</v>
+        <v>973</v>
       </c>
       <c r="L25" s="11">
-        <v>973</v>
+        <v>914</v>
       </c>
       <c r="M25" s="11">
-        <v>914</v>
+        <v>801</v>
       </c>
       <c r="N25" s="11">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>16</v>
@@ -1439,11 +1447,11 @@
       <c r="I26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>17</v>
@@ -1455,9 +1463,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>16</v>
@@ -1478,11 +1486,11 @@
       <c r="I27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>17</v>
@@ -1494,35 +1502,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="9">
         <v>473804</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>17</v>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9">
+        <v>187589</v>
       </c>
       <c r="H28" s="9">
-        <v>187589</v>
+        <v>177990</v>
       </c>
       <c r="I28" s="9">
-        <v>177990</v>
+        <v>144929</v>
       </c>
       <c r="J28" s="9">
-        <v>144929</v>
-      </c>
-      <c r="K28" s="9">
         <v>227917</v>
       </c>
+      <c r="K28" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L28" s="9" t="s">
         <v>17</v>
       </c>
@@ -1533,9 +1541,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
@@ -1556,11 +1564,11 @@
       <c r="I29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>17</v>
@@ -1572,44 +1580,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>818746</v>
+        <v>1205515</v>
       </c>
       <c r="F30" s="13">
-        <v>1205515</v>
+        <v>1170647</v>
       </c>
       <c r="G30" s="13">
-        <v>1170647</v>
+        <v>734694</v>
       </c>
       <c r="H30" s="13">
-        <v>734694</v>
+        <v>722614</v>
       </c>
       <c r="I30" s="13">
-        <v>722614</v>
+        <v>703292</v>
       </c>
       <c r="J30" s="13">
-        <v>703292</v>
+        <v>710777</v>
       </c>
       <c r="K30" s="13">
-        <v>710777</v>
+        <v>737253</v>
       </c>
       <c r="L30" s="13">
-        <v>737253</v>
+        <v>732905</v>
       </c>
       <c r="M30" s="13">
-        <v>732905</v>
+        <v>708346</v>
       </c>
       <c r="N30" s="13">
-        <v>708346</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>487061</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1624,7 +1632,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1639,7 +1647,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1654,9 +1662,9 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1691,7 +1699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1706,7 +1714,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
@@ -1729,11 +1737,11 @@
       <c r="I36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L36" s="9" t="s">
         <v>17</v>
@@ -1745,7 +1753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>18</v>
       </c>
@@ -1754,37 +1762,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>157659</v>
+        <v>436084</v>
       </c>
       <c r="F37" s="11">
-        <v>436084</v>
+        <v>116294</v>
       </c>
       <c r="G37" s="11">
-        <v>116294</v>
+        <v>200764</v>
       </c>
       <c r="H37" s="11">
-        <v>200764</v>
+        <v>160797</v>
       </c>
       <c r="I37" s="11">
-        <v>160797</v>
-      </c>
-      <c r="J37" s="11">
         <v>148448</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>17</v>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11">
+        <v>186917</v>
       </c>
       <c r="L37" s="11">
-        <v>186917</v>
+        <v>156719</v>
       </c>
       <c r="M37" s="11">
-        <v>156719</v>
+        <v>118632</v>
       </c>
       <c r="N37" s="11">
-        <v>118632</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71321</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>21</v>
       </c>
@@ -1832,42 +1840,42 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>205482</v>
+        <v>555528</v>
       </c>
       <c r="F39" s="11">
-        <v>555528</v>
+        <v>-25540</v>
       </c>
       <c r="G39" s="11">
-        <v>-25540</v>
+        <v>208383</v>
       </c>
       <c r="H39" s="11">
-        <v>208383</v>
+        <v>232138</v>
       </c>
       <c r="I39" s="11">
-        <v>232138</v>
-      </c>
-      <c r="J39" s="11">
         <v>235113</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>17</v>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11">
+        <v>219898</v>
       </c>
       <c r="L39" s="11">
-        <v>219898</v>
+        <v>213798</v>
       </c>
       <c r="M39" s="11">
-        <v>213798</v>
+        <v>193851</v>
       </c>
       <c r="N39" s="11">
-        <v>193851</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>194782</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -1876,8 +1884,8 @@
       <c r="F40" s="9">
         <v>0</v>
       </c>
-      <c r="G40" s="9">
-        <v>0</v>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>17</v>
@@ -1901,7 +1909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>22</v>
       </c>
@@ -1910,39 +1918,39 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>12869</v>
+        <v>22791</v>
       </c>
       <c r="F41" s="11">
-        <v>22791</v>
+        <v>16004</v>
       </c>
       <c r="G41" s="11">
-        <v>16004</v>
+        <v>10157</v>
       </c>
       <c r="H41" s="11">
-        <v>10157</v>
+        <v>23642</v>
       </c>
       <c r="I41" s="11">
-        <v>23642</v>
-      </c>
-      <c r="J41" s="11">
         <v>4899</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>17</v>
+      <c r="J41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11">
+        <v>6399</v>
       </c>
       <c r="L41" s="11">
-        <v>6399</v>
+        <v>6490</v>
       </c>
       <c r="M41" s="11">
-        <v>6490</v>
+        <v>9991</v>
       </c>
       <c r="N41" s="11">
-        <v>9991</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>16</v>
@@ -1957,31 +1965,31 @@
       <c r="G42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>17</v>
+      <c r="H42" s="9">
+        <v>439</v>
       </c>
       <c r="I42" s="9">
-        <v>439</v>
-      </c>
-      <c r="J42" s="9">
         <v>-385721</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>17</v>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9">
+        <v>263159</v>
       </c>
       <c r="L42" s="9">
-        <v>263159</v>
+        <v>294151</v>
       </c>
       <c r="M42" s="9">
-        <v>294151</v>
+        <v>245865</v>
       </c>
       <c r="N42" s="9">
-        <v>245865</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232807</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>16</v>
@@ -2018,9 +2026,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>16</v>
@@ -2057,9 +2065,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>16</v>
@@ -2096,48 +2104,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>40123</v>
+        <v>174389</v>
       </c>
       <c r="F46" s="9">
-        <v>174389</v>
+        <v>133167</v>
       </c>
       <c r="G46" s="9">
-        <v>133167</v>
+        <v>190388</v>
       </c>
       <c r="H46" s="9">
-        <v>190388</v>
+        <v>137479</v>
       </c>
       <c r="I46" s="9">
-        <v>137479</v>
-      </c>
-      <c r="J46" s="9">
         <v>185378</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>17</v>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9">
+        <v>44399</v>
       </c>
       <c r="L46" s="9">
-        <v>44399</v>
+        <v>86892</v>
       </c>
       <c r="M46" s="9">
-        <v>86892</v>
+        <v>138229</v>
       </c>
       <c r="N46" s="9">
-        <v>138229</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2147,20 +2155,20 @@
       <c r="F47" s="11">
         <v>0</v>
       </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>17</v>
+      <c r="G47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
       </c>
       <c r="I47" s="11">
         <v>0</v>
       </c>
-      <c r="J47" s="11">
-        <v>0</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>17</v>
+      <c r="J47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
         <v>0</v>
@@ -2172,9 +2180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>16</v>
@@ -2211,9 +2219,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>16</v>
@@ -2250,9 +2258,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>16</v>
@@ -2273,11 +2281,11 @@
       <c r="I50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>17</v>
@@ -2289,34 +2297,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="F51" s="11">
-        <v>0</v>
-      </c>
-      <c r="G51" s="11">
         <v>1810</v>
       </c>
+      <c r="G51" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="11">
-        <v>0</v>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>17</v>
@@ -2328,55 +2336,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>993</v>
+        <v>1923</v>
       </c>
       <c r="F52" s="9">
-        <v>1923</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
       </c>
       <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="9">
         <v>1814</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>17</v>
+      <c r="J52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="9">
+        <v>2456</v>
       </c>
       <c r="L52" s="9">
-        <v>2456</v>
+        <v>0</v>
       </c>
       <c r="M52" s="9">
-        <v>0</v>
+        <v>951</v>
       </c>
       <c r="N52" s="9">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11">
-        <v>0</v>
+      <c r="E53" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>17</v>
@@ -2390,11 +2398,11 @@
       <c r="I53" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="11">
-        <v>0</v>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>17</v>
@@ -2406,9 +2414,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>16</v>
@@ -2429,11 +2437,11 @@
       <c r="I54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>17</v>
@@ -2445,35 +2453,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>188657</v>
+        <v>465679</v>
       </c>
       <c r="F55" s="11">
-        <v>465679</v>
+        <v>222589</v>
       </c>
       <c r="G55" s="11">
-        <v>222589</v>
+        <v>202731</v>
       </c>
       <c r="H55" s="11">
-        <v>202731</v>
+        <v>182551</v>
       </c>
       <c r="I55" s="11">
-        <v>182551</v>
+        <v>125155</v>
       </c>
       <c r="J55" s="11">
-        <v>125155</v>
-      </c>
-      <c r="K55" s="11">
         <v>199783</v>
       </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L55" s="11" t="s">
         <v>17</v>
       </c>
@@ -2484,9 +2492,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>16</v>
@@ -2507,11 +2515,11 @@
       <c r="I56" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L56" s="9" t="s">
         <v>17</v>
@@ -2523,44 +2531,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>606257</v>
+        <v>1656394</v>
       </c>
       <c r="F57" s="15">
-        <v>1656394</v>
+        <v>464324</v>
       </c>
       <c r="G57" s="15">
-        <v>464324</v>
+        <v>812423</v>
       </c>
       <c r="H57" s="15">
-        <v>812423</v>
+        <v>737046</v>
       </c>
       <c r="I57" s="15">
-        <v>737046</v>
+        <v>315086</v>
       </c>
       <c r="J57" s="15">
-        <v>315086</v>
+        <v>199783</v>
       </c>
       <c r="K57" s="15">
-        <v>199783</v>
+        <v>723228</v>
       </c>
       <c r="L57" s="15">
-        <v>723228</v>
+        <v>758050</v>
       </c>
       <c r="M57" s="15">
-        <v>758050</v>
+        <v>707519</v>
       </c>
       <c r="N57" s="15">
-        <v>707519</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>548794</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2575,7 +2583,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2590,7 +2598,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2605,9 +2613,9 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2642,7 +2650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2657,12 +2665,12 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
@@ -2680,11 +2688,11 @@
       <c r="I63" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63" s="9">
-        <v>0</v>
+      <c r="J63" s="9">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>17</v>
@@ -2696,51 +2704,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>6950066</v>
+        <v>6683605</v>
       </c>
       <c r="F64" s="11">
-        <v>6683605</v>
+        <v>12239447</v>
       </c>
       <c r="G64" s="11">
-        <v>12239447</v>
+        <v>13206285</v>
       </c>
       <c r="H64" s="11">
-        <v>13206285</v>
+        <v>16787869</v>
       </c>
       <c r="I64" s="11">
-        <v>16787869</v>
-      </c>
-      <c r="J64" s="11">
         <v>14685148</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>17</v>
+      <c r="J64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="11">
+        <v>26157894</v>
       </c>
       <c r="L64" s="11">
-        <v>26157894</v>
+        <v>19022715</v>
       </c>
       <c r="M64" s="11">
-        <v>19022715</v>
+        <v>10868295</v>
       </c>
       <c r="N64" s="11">
-        <v>10868295</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-831615</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
@@ -2774,51 +2782,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>10396678</v>
+        <v>15478533</v>
       </c>
       <c r="F66" s="11">
-        <v>15478533</v>
+        <v>21860742</v>
       </c>
       <c r="G66" s="11">
-        <v>21860742</v>
+        <v>19919749</v>
       </c>
       <c r="H66" s="11">
-        <v>19919749</v>
+        <v>25106908</v>
       </c>
       <c r="I66" s="11">
-        <v>25106908</v>
-      </c>
-      <c r="J66" s="11">
         <v>29589323</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>17</v>
+      <c r="J66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="11">
+        <v>47100437</v>
       </c>
       <c r="L66" s="11">
-        <v>47100437</v>
+        <v>52587614</v>
       </c>
       <c r="M66" s="11">
-        <v>52587614</v>
+        <v>40571777</v>
       </c>
       <c r="N66" s="11">
-        <v>40571777</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36938136</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2827,8 +2835,8 @@
       <c r="F67" s="9">
         <v>0</v>
       </c>
-      <c r="G67" s="9">
-        <v>0</v>
+      <c r="G67" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>17</v>
@@ -2852,51 +2860,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>560687</v>
+        <v>118875</v>
       </c>
       <c r="F68" s="11">
-        <v>118875</v>
+        <v>1010399</v>
       </c>
       <c r="G68" s="11">
-        <v>1010399</v>
+        <v>475782</v>
       </c>
       <c r="H68" s="11">
-        <v>475782</v>
+        <v>1719291</v>
       </c>
       <c r="I68" s="11">
-        <v>1719291</v>
-      </c>
-      <c r="J68" s="11">
         <v>282797</v>
       </c>
-      <c r="K68" s="11" t="s">
-        <v>17</v>
+      <c r="J68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="11">
+        <v>633303</v>
       </c>
       <c r="L68" s="11">
-        <v>633303</v>
+        <v>432217</v>
       </c>
       <c r="M68" s="11">
-        <v>432217</v>
+        <v>680953</v>
       </c>
       <c r="N68" s="11">
-        <v>680953</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>485042</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
@@ -2908,34 +2916,34 @@
       <c r="G69" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>17</v>
+      <c r="H69" s="9">
+        <v>21125</v>
       </c>
       <c r="I69" s="9">
-        <v>21125</v>
-      </c>
-      <c r="J69" s="9">
         <v>-38975121</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>17</v>
+      <c r="J69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="9">
+        <v>52655559</v>
       </c>
       <c r="L69" s="9">
-        <v>52655559</v>
+        <v>55423228</v>
       </c>
       <c r="M69" s="9">
-        <v>55423228</v>
+        <v>37088298</v>
       </c>
       <c r="N69" s="9">
-        <v>37088298</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37958852</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
@@ -2969,12 +2977,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -3008,12 +3016,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
@@ -3047,51 +3055,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>2458119</v>
+        <v>5202161</v>
       </c>
       <c r="F73" s="9">
-        <v>5202161</v>
+        <v>9726949</v>
       </c>
       <c r="G73" s="9">
-        <v>9726949</v>
+        <v>13076575</v>
       </c>
       <c r="H73" s="9">
-        <v>13076575</v>
+        <v>14507802</v>
       </c>
       <c r="I73" s="9">
-        <v>14507802</v>
-      </c>
-      <c r="J73" s="9">
         <v>20843112</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>17</v>
+      <c r="J73" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="9">
+        <v>5433585</v>
       </c>
       <c r="L73" s="9">
-        <v>5433585</v>
+        <v>9554211</v>
       </c>
       <c r="M73" s="9">
-        <v>9554211</v>
+        <v>13961612</v>
       </c>
       <c r="N73" s="9">
-        <v>13961612</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7804497</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
@@ -3100,20 +3108,20 @@
       <c r="F74" s="11">
         <v>0</v>
       </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>17</v>
+      <c r="G74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
       </c>
       <c r="I74" s="11">
         <v>0</v>
       </c>
-      <c r="J74" s="11">
-        <v>0</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>17</v>
+      <c r="J74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
       </c>
       <c r="L74" s="11">
         <v>0</v>
@@ -3125,12 +3133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
@@ -3164,12 +3172,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
@@ -3203,12 +3211,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
@@ -3226,11 +3234,11 @@
       <c r="I77" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K77" s="9">
-        <v>0</v>
+      <c r="J77" s="9">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L77" s="9" t="s">
         <v>17</v>
@@ -3242,34 +3250,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>14535</v>
+        <v>0</v>
       </c>
       <c r="F78" s="11">
-        <v>0</v>
-      </c>
-      <c r="G78" s="11">
         <v>74020</v>
       </c>
+      <c r="G78" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="11">
-        <v>0</v>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L78" s="11" t="s">
         <v>17</v>
@@ -3281,55 +3289,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>10743</v>
+        <v>16780</v>
       </c>
       <c r="F79" s="9">
-        <v>16780</v>
-      </c>
-      <c r="G79" s="9">
         <v>2</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>17</v>
+      <c r="G79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0</v>
       </c>
       <c r="I79" s="9">
-        <v>0</v>
-      </c>
-      <c r="J79" s="9">
         <v>123698</v>
       </c>
-      <c r="K79" s="9" t="s">
-        <v>17</v>
+      <c r="J79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="9">
+        <v>249493</v>
       </c>
       <c r="L79" s="9">
-        <v>249493</v>
+        <v>-26733</v>
       </c>
       <c r="M79" s="9">
-        <v>-26733</v>
+        <v>68576</v>
       </c>
       <c r="N79" s="9">
-        <v>68576</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>0</v>
+      <c r="E80" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>17</v>
@@ -3343,11 +3351,11 @@
       <c r="I80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K80" s="11">
-        <v>0</v>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L80" s="11" t="s">
         <v>17</v>
@@ -3359,12 +3367,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
@@ -3382,11 +3390,11 @@
       <c r="I81" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="9">
-        <v>0</v>
+      <c r="J81" s="9">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L81" s="9" t="s">
         <v>17</v>
@@ -3398,35 +3406,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>8231719</v>
+        <v>9930578</v>
       </c>
       <c r="F82" s="11">
-        <v>9930578</v>
+        <v>18823056</v>
       </c>
       <c r="G82" s="11">
-        <v>18823056</v>
+        <v>18549328</v>
       </c>
       <c r="H82" s="11">
-        <v>18549328</v>
+        <v>20404668</v>
       </c>
       <c r="I82" s="11">
-        <v>20404668</v>
+        <v>17197228</v>
       </c>
       <c r="J82" s="11">
-        <v>17197228</v>
-      </c>
-      <c r="K82" s="11">
         <v>32329873</v>
       </c>
+      <c r="K82" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L82" s="11" t="s">
         <v>17</v>
       </c>
@@ -3437,12 +3445,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -3460,11 +3468,11 @@
       <c r="I83" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="9">
-        <v>0</v>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>17</v>
@@ -3476,44 +3484,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>28622547</v>
+        <v>37430532</v>
       </c>
       <c r="F84" s="15">
-        <v>37430532</v>
+        <v>63734615</v>
       </c>
       <c r="G84" s="15">
-        <v>63734615</v>
+        <v>65227719</v>
       </c>
       <c r="H84" s="15">
-        <v>65227719</v>
+        <v>78547663</v>
       </c>
       <c r="I84" s="15">
-        <v>78547663</v>
+        <v>43746185</v>
       </c>
       <c r="J84" s="15">
-        <v>43746185</v>
+        <v>32329873</v>
       </c>
       <c r="K84" s="15">
-        <v>32329873</v>
+        <v>132230271</v>
       </c>
       <c r="L84" s="15">
-        <v>132230271</v>
+        <v>136993252</v>
       </c>
       <c r="M84" s="15">
-        <v>136993252</v>
+        <v>103239511</v>
       </c>
       <c r="N84" s="15">
-        <v>103239511</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82355074</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3528,7 +3536,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3543,7 +3551,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3558,9 +3566,9 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3595,7 +3603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3610,12 +3618,12 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9" t="s">
@@ -3649,51 +3657,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>44082900</v>
+        <v>48276596</v>
       </c>
       <c r="F91" s="11">
-        <v>48276596</v>
+        <v>105245731</v>
       </c>
       <c r="G91" s="11">
-        <v>105245731</v>
+        <v>65780145</v>
       </c>
       <c r="H91" s="11">
-        <v>65780145</v>
+        <v>104404118</v>
       </c>
       <c r="I91" s="11">
-        <v>104404118</v>
+        <v>98924526</v>
       </c>
       <c r="J91" s="11">
-        <v>98924526</v>
+        <v>62935074</v>
       </c>
       <c r="K91" s="11">
-        <v>62935074</v>
+        <v>139943900</v>
       </c>
       <c r="L91" s="11">
-        <v>139943900</v>
+        <v>121381039</v>
       </c>
       <c r="M91" s="11">
-        <v>121381039</v>
+        <v>91613519</v>
       </c>
       <c r="N91" s="11">
-        <v>91613519</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11660170</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
@@ -3727,51 +3735,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>50596539</v>
+        <v>61926517</v>
       </c>
       <c r="F93" s="11">
-        <v>61926517</v>
+        <v>106113410</v>
       </c>
       <c r="G93" s="11">
-        <v>106113410</v>
+        <v>95592006</v>
       </c>
       <c r="H93" s="11">
-        <v>95592006</v>
+        <v>108155097</v>
       </c>
       <c r="I93" s="11">
-        <v>108155097</v>
+        <v>125851497</v>
       </c>
       <c r="J93" s="11">
-        <v>125851497</v>
+        <v>172770056</v>
       </c>
       <c r="K93" s="11">
-        <v>172770056</v>
+        <v>214192203</v>
       </c>
       <c r="L93" s="11">
-        <v>214192203</v>
+        <v>245968690</v>
       </c>
       <c r="M93" s="11">
-        <v>245968690</v>
+        <v>209293617</v>
       </c>
       <c r="N93" s="11">
-        <v>209293617</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>189638344</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
@@ -3805,51 +3813,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>43568809</v>
+        <v>22075209</v>
       </c>
       <c r="F95" s="11">
-        <v>22075209</v>
+        <v>63363790</v>
       </c>
       <c r="G95" s="11">
-        <v>63363790</v>
+        <v>46842769</v>
       </c>
       <c r="H95" s="11">
-        <v>46842769</v>
+        <v>72721893</v>
       </c>
       <c r="I95" s="11">
-        <v>72721893</v>
+        <v>57725454</v>
       </c>
       <c r="J95" s="11">
-        <v>57725454</v>
+        <v>12298995</v>
       </c>
       <c r="K95" s="11">
-        <v>12298995</v>
+        <v>98969058</v>
       </c>
       <c r="L95" s="11">
-        <v>98969058</v>
+        <v>66597381</v>
       </c>
       <c r="M95" s="11">
-        <v>66597381</v>
+        <v>68156641</v>
       </c>
       <c r="N95" s="11">
-        <v>68156641</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>134621704</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9" t="s">
@@ -3861,34 +3869,34 @@
       <c r="G96" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>17</v>
+      <c r="H96" s="9">
+        <v>48120729</v>
       </c>
       <c r="I96" s="9">
         <v>48120729</v>
       </c>
       <c r="J96" s="9">
-        <v>48120729</v>
+        <v>34711240</v>
       </c>
       <c r="K96" s="9">
-        <v>34711240</v>
+        <v>200090284</v>
       </c>
       <c r="L96" s="9">
-        <v>200090284</v>
+        <v>188417609</v>
       </c>
       <c r="M96" s="9">
-        <v>188417609</v>
+        <v>150848222</v>
       </c>
       <c r="N96" s="9">
-        <v>150848222</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>163048585</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
@@ -3922,51 +3930,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>61264586</v>
+        <v>56483220</v>
       </c>
       <c r="F98" s="9">
-        <v>56483220</v>
+        <v>73043239</v>
       </c>
       <c r="G98" s="9">
-        <v>73043239</v>
+        <v>68683819</v>
       </c>
       <c r="H98" s="9">
-        <v>68683819</v>
+        <v>105527404</v>
       </c>
       <c r="I98" s="9">
-        <v>105527404</v>
+        <v>112435737</v>
       </c>
       <c r="J98" s="9">
-        <v>112435737</v>
+        <v>138173261</v>
       </c>
       <c r="K98" s="9">
-        <v>138173261</v>
+        <v>122380797</v>
       </c>
       <c r="L98" s="9">
-        <v>122380797</v>
+        <v>109955013</v>
       </c>
       <c r="M98" s="9">
-        <v>109955013</v>
+        <v>101003494</v>
       </c>
       <c r="N98" s="9">
-        <v>101003494</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>168632851</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11" t="s">
@@ -4000,12 +4008,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
@@ -4039,12 +4047,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
@@ -4078,23 +4086,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
         <v>30664557</v>
       </c>
       <c r="F102" s="9">
-        <v>30664557</v>
-      </c>
-      <c r="G102" s="9">
         <v>40895028</v>
       </c>
+      <c r="G102" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H102" s="9" t="s">
         <v>17</v>
       </c>
@@ -4117,51 +4125,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11">
-        <v>10818731</v>
-      </c>
-      <c r="F103" s="11">
         <v>18043011</v>
       </c>
+      <c r="F103" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G103" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J103" s="11">
+      <c r="I103" s="11">
         <v>68190739</v>
       </c>
-      <c r="K103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L103" s="11">
+      <c r="J103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="11">
         <v>101585098</v>
       </c>
-      <c r="M103" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N103" s="11">
+      <c r="L103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="11">
         <v>72109359</v>
       </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -4195,12 +4203,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
@@ -4234,35 +4242,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>43633255</v>
+        <v>59252012</v>
       </c>
       <c r="F106" s="9">
-        <v>59252012</v>
+        <v>81718218</v>
       </c>
       <c r="G106" s="9">
-        <v>81718218</v>
+        <v>91497245</v>
       </c>
       <c r="H106" s="9">
-        <v>91497245</v>
+        <v>111775164</v>
       </c>
       <c r="I106" s="9">
-        <v>111775164</v>
+        <v>137407439</v>
       </c>
       <c r="J106" s="9">
-        <v>137407439</v>
-      </c>
-      <c r="K106" s="9">
         <v>161824945</v>
       </c>
+      <c r="K106" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L106" s="9" t="s">
         <v>17</v>
       </c>
@@ -4273,12 +4281,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
@@ -4312,7 +4320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4327,7 +4335,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4342,7 +4350,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4357,9 +4365,9 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -4394,7 +4402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4409,12 +4417,12 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
@@ -4432,11 +4440,11 @@
       <c r="I113" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J113" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K113" s="9">
-        <v>0</v>
+      <c r="J113" s="9">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L113" s="9" t="s">
         <v>17</v>
@@ -4448,51 +4456,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>-3438200</v>
+        <v>-6413255</v>
       </c>
       <c r="F114" s="11">
-        <v>-6413255</v>
+        <v>-7590501</v>
       </c>
       <c r="G114" s="11">
-        <v>-7590501</v>
+        <v>-11297780</v>
       </c>
       <c r="H114" s="11">
-        <v>-11297780</v>
+        <v>-10533704</v>
       </c>
       <c r="I114" s="11">
-        <v>-10533704</v>
+        <v>-12332524</v>
       </c>
       <c r="J114" s="11">
-        <v>-12332524</v>
+        <v>-29365857</v>
       </c>
       <c r="K114" s="11">
-        <v>-29365857</v>
+        <v>-22786682</v>
       </c>
       <c r="L114" s="11">
-        <v>-22786682</v>
+        <v>-18875394</v>
       </c>
       <c r="M114" s="11">
-        <v>-18875394</v>
+        <v>-12275262</v>
       </c>
       <c r="N114" s="11">
-        <v>-12275262</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>789067</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
@@ -4526,51 +4534,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>-9487172</v>
+        <v>-14901601</v>
       </c>
       <c r="F116" s="11">
-        <v>-14901601</v>
+        <v>-17474425</v>
       </c>
       <c r="G116" s="11">
-        <v>-17474425</v>
+        <v>-17958156</v>
       </c>
       <c r="H116" s="11">
-        <v>-17958156</v>
+        <v>-22400056</v>
       </c>
       <c r="I116" s="11">
-        <v>-22400056</v>
+        <v>-28640480</v>
       </c>
       <c r="J116" s="11">
-        <v>-28640480</v>
+        <v>-25782831</v>
       </c>
       <c r="K116" s="11">
-        <v>-25782831</v>
+        <v>-37915241</v>
       </c>
       <c r="L116" s="11">
-        <v>-37915241</v>
+        <v>-44597075</v>
       </c>
       <c r="M116" s="11">
-        <v>-44597075</v>
+        <v>-38770545</v>
       </c>
       <c r="N116" s="11">
-        <v>-38770545</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-38857201</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
@@ -4579,8 +4587,8 @@
       <c r="F117" s="9">
         <v>0</v>
       </c>
-      <c r="G117" s="9">
-        <v>0</v>
+      <c r="G117" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>17</v>
@@ -4604,51 +4612,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>-447692</v>
+        <v>-142962</v>
       </c>
       <c r="F118" s="11">
-        <v>-142962</v>
+        <v>-795997</v>
       </c>
       <c r="G118" s="11">
-        <v>-795997</v>
+        <v>-450924</v>
       </c>
       <c r="H118" s="11">
-        <v>-450924</v>
+        <v>-1476706</v>
       </c>
       <c r="I118" s="11">
-        <v>-1476706</v>
+        <v>-609928</v>
       </c>
       <c r="J118" s="11">
-        <v>-609928</v>
+        <v>189139</v>
       </c>
       <c r="K118" s="11">
-        <v>189139</v>
+        <v>-571139</v>
       </c>
       <c r="L118" s="11">
-        <v>-571139</v>
+        <v>-404436</v>
       </c>
       <c r="M118" s="11">
-        <v>-404436</v>
+        <v>-691846</v>
       </c>
       <c r="N118" s="11">
-        <v>-691846</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-384379</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
@@ -4660,34 +4668,34 @@
       <c r="G119" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H119" s="9" t="s">
-        <v>17</v>
+      <c r="H119" s="9">
+        <v>-18379</v>
       </c>
       <c r="I119" s="9">
-        <v>-18379</v>
+        <v>18379</v>
       </c>
       <c r="J119" s="9">
-        <v>18379</v>
+        <v>-16451</v>
       </c>
       <c r="K119" s="9">
-        <v>-16451</v>
+        <v>-43354648</v>
       </c>
       <c r="L119" s="9">
-        <v>-43354648</v>
+        <v>-48286239</v>
       </c>
       <c r="M119" s="9">
-        <v>-48286239</v>
+        <v>-35305358</v>
       </c>
       <c r="N119" s="9">
-        <v>-35305358</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-39923236</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
@@ -4721,51 +4729,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>-1947237</v>
+        <v>-4393231</v>
       </c>
       <c r="F121" s="9">
-        <v>-4393231</v>
+        <v>-7395776</v>
       </c>
       <c r="G121" s="9">
-        <v>-7395776</v>
+        <v>-10477193</v>
       </c>
       <c r="H121" s="9">
-        <v>-10477193</v>
+        <v>-12556583</v>
       </c>
       <c r="I121" s="9">
-        <v>-12556583</v>
+        <v>-18258298</v>
       </c>
       <c r="J121" s="9">
-        <v>-18258298</v>
+        <v>-12492288</v>
       </c>
       <c r="K121" s="9">
-        <v>-12492288</v>
+        <v>-4563373</v>
       </c>
       <c r="L121" s="9">
-        <v>-4563373</v>
+        <v>-8842989</v>
       </c>
       <c r="M121" s="9">
-        <v>-8842989</v>
+        <v>-13798875</v>
       </c>
       <c r="N121" s="9">
-        <v>-13798875</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6195127</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
@@ -4774,11 +4782,11 @@
       <c r="F122" s="11">
         <v>0</v>
       </c>
-      <c r="G122" s="11">
-        <v>0</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>17</v>
+      <c r="G122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="11">
+        <v>0</v>
       </c>
       <c r="I122" s="11">
         <v>0</v>
@@ -4799,12 +4807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
@@ -4822,11 +4830,11 @@
       <c r="I123" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K123" s="9">
-        <v>0</v>
+      <c r="J123" s="9">
+        <v>0</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L123" s="9" t="s">
         <v>17</v>
@@ -4838,34 +4846,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>-13082</v>
+        <v>13082</v>
       </c>
       <c r="F124" s="11">
-        <v>13082</v>
-      </c>
-      <c r="G124" s="11">
         <v>-53101</v>
       </c>
+      <c r="G124" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H124" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I124" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K124" s="11">
-        <v>0</v>
+      <c r="J124" s="11">
+        <v>0</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L124" s="11" t="s">
         <v>17</v>
@@ -4877,55 +4885,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>-8834</v>
+        <v>-12419</v>
       </c>
       <c r="F125" s="9">
-        <v>-12419</v>
-      </c>
-      <c r="G125" s="9">
         <v>697</v>
       </c>
-      <c r="H125" s="9" t="s">
-        <v>17</v>
+      <c r="G125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="9">
+        <v>0</v>
       </c>
       <c r="I125" s="9">
-        <v>0</v>
+        <v>-76454</v>
       </c>
       <c r="J125" s="9">
-        <v>-76454</v>
+        <v>-36174</v>
       </c>
       <c r="K125" s="9">
-        <v>-36174</v>
+        <v>-215111</v>
       </c>
       <c r="L125" s="9">
-        <v>-215111</v>
+        <v>9043</v>
       </c>
       <c r="M125" s="9">
-        <v>9043</v>
+        <v>-56920</v>
       </c>
       <c r="N125" s="9">
-        <v>-56920</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5713</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11">
-        <v>0</v>
+      <c r="E126" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>17</v>
@@ -4939,11 +4947,11 @@
       <c r="I126" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K126" s="11">
-        <v>0</v>
+      <c r="J126" s="11">
+        <v>0</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L126" s="11" t="s">
         <v>17</v>
@@ -4955,12 +4963,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
@@ -4978,11 +4986,11 @@
       <c r="I127" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K127" s="9">
-        <v>0</v>
+      <c r="J127" s="9">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L127" s="9" t="s">
         <v>17</v>
@@ -4994,35 +5002,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>-6146445</v>
+        <v>-10451725</v>
       </c>
       <c r="F128" s="11">
-        <v>-10451725</v>
+        <v>-13510934</v>
       </c>
       <c r="G128" s="11">
-        <v>-13510934</v>
+        <v>-15266921</v>
       </c>
       <c r="H128" s="11">
-        <v>-15266921</v>
+        <v>-19380444</v>
       </c>
       <c r="I128" s="11">
-        <v>-19380444</v>
+        <v>-16610594</v>
       </c>
       <c r="J128" s="11">
-        <v>-16610594</v>
-      </c>
-      <c r="K128" s="11">
         <v>-28287345</v>
       </c>
+      <c r="K128" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L128" s="11" t="s">
         <v>17</v>
       </c>
@@ -5033,12 +5041,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9" t="s">
@@ -5056,11 +5064,11 @@
       <c r="I129" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K129" s="9">
-        <v>0</v>
+      <c r="J129" s="9">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L129" s="9" t="s">
         <v>17</v>
@@ -5072,44 +5080,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15">
-        <v>-21488662</v>
+        <v>-36302111</v>
       </c>
       <c r="F130" s="15">
-        <v>-36302111</v>
+        <v>-46820037</v>
       </c>
       <c r="G130" s="15">
-        <v>-46820037</v>
+        <v>-55450974</v>
       </c>
       <c r="H130" s="15">
-        <v>-55450974</v>
+        <v>-66365872</v>
       </c>
       <c r="I130" s="15">
-        <v>-66365872</v>
+        <v>-76509899</v>
       </c>
       <c r="J130" s="15">
-        <v>-76509899</v>
+        <v>-95791807</v>
       </c>
       <c r="K130" s="15">
-        <v>-95791807</v>
+        <v>-109406194</v>
       </c>
       <c r="L130" s="15">
-        <v>-109406194</v>
+        <v>-120997090</v>
       </c>
       <c r="M130" s="15">
-        <v>-120997090</v>
+        <v>-100898806</v>
       </c>
       <c r="N130" s="15">
-        <v>-100898806</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-84576589</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5124,7 +5132,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5139,7 +5147,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5154,9 +5162,9 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -5191,7 +5199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5206,12 +5214,12 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9" t="s">
@@ -5229,11 +5237,11 @@
       <c r="I136" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J136" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K136" s="9">
-        <v>0</v>
+      <c r="J136" s="9">
+        <v>0</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L136" s="9" t="s">
         <v>17</v>
@@ -5245,51 +5253,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>3511866</v>
+        <v>270350</v>
       </c>
       <c r="F137" s="11">
-        <v>270350</v>
+        <v>4648946</v>
       </c>
       <c r="G137" s="11">
-        <v>4648946</v>
+        <v>1908505</v>
       </c>
       <c r="H137" s="11">
-        <v>1908505</v>
+        <v>6254165</v>
       </c>
       <c r="I137" s="11">
-        <v>6254165</v>
+        <v>2352624</v>
       </c>
       <c r="J137" s="11">
-        <v>2352624</v>
+        <v>-7663452</v>
       </c>
       <c r="K137" s="11">
-        <v>-7663452</v>
+        <v>3371212</v>
       </c>
       <c r="L137" s="11">
-        <v>3371212</v>
+        <v>147321</v>
       </c>
       <c r="M137" s="11">
-        <v>147321</v>
+        <v>-1406967</v>
       </c>
       <c r="N137" s="11">
-        <v>-1406967</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-42548</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
@@ -5323,51 +5331,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
-        <v>909506</v>
+        <v>576932</v>
       </c>
       <c r="F139" s="11">
-        <v>576932</v>
+        <v>4386317</v>
       </c>
       <c r="G139" s="11">
-        <v>4386317</v>
+        <v>1961593</v>
       </c>
       <c r="H139" s="11">
-        <v>1961593</v>
+        <v>2706852</v>
       </c>
       <c r="I139" s="11">
-        <v>2706852</v>
+        <v>948843</v>
       </c>
       <c r="J139" s="11">
-        <v>948843</v>
+        <v>7466248</v>
       </c>
       <c r="K139" s="11">
-        <v>7466248</v>
+        <v>9185196</v>
       </c>
       <c r="L139" s="11">
-        <v>9185196</v>
+        <v>7990539</v>
       </c>
       <c r="M139" s="11">
-        <v>7990539</v>
+        <v>1801232</v>
       </c>
       <c r="N139" s="11">
-        <v>1801232</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1919065</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
@@ -5376,8 +5384,8 @@
       <c r="F140" s="9">
         <v>0</v>
       </c>
-      <c r="G140" s="9">
-        <v>0</v>
+      <c r="G140" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>17</v>
@@ -5401,51 +5409,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
-        <v>112995</v>
+        <v>-24087</v>
       </c>
       <c r="F141" s="11">
-        <v>-24087</v>
+        <v>214402</v>
       </c>
       <c r="G141" s="11">
-        <v>214402</v>
+        <v>24858</v>
       </c>
       <c r="H141" s="11">
-        <v>24858</v>
+        <v>242585</v>
       </c>
       <c r="I141" s="11">
-        <v>242585</v>
+        <v>-327131</v>
       </c>
       <c r="J141" s="11">
-        <v>-327131</v>
+        <v>164664</v>
       </c>
       <c r="K141" s="11">
-        <v>164664</v>
+        <v>62164</v>
       </c>
       <c r="L141" s="11">
-        <v>62164</v>
+        <v>27781</v>
       </c>
       <c r="M141" s="11">
-        <v>27781</v>
+        <v>-10893</v>
       </c>
       <c r="N141" s="11">
-        <v>-10893</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100663</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9" t="s">
@@ -5457,34 +5465,34 @@
       <c r="G142" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H142" s="9" t="s">
-        <v>17</v>
+      <c r="H142" s="9">
+        <v>2746</v>
       </c>
       <c r="I142" s="9">
-        <v>2746</v>
+        <v>-2746</v>
       </c>
       <c r="J142" s="9">
-        <v>-2746</v>
+        <v>1460</v>
       </c>
       <c r="K142" s="9">
-        <v>1460</v>
+        <v>9300911</v>
       </c>
       <c r="L142" s="9">
-        <v>9300911</v>
+        <v>7136989</v>
       </c>
       <c r="M142" s="9">
-        <v>7136989</v>
+        <v>1782940</v>
       </c>
       <c r="N142" s="9">
-        <v>1782940</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1964384</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
@@ -5518,51 +5526,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9">
-        <v>510882</v>
+        <v>808930</v>
       </c>
       <c r="F144" s="9">
-        <v>808930</v>
+        <v>2331173</v>
       </c>
       <c r="G144" s="9">
-        <v>2331173</v>
+        <v>2599382</v>
       </c>
       <c r="H144" s="9">
-        <v>2599382</v>
+        <v>1951219</v>
       </c>
       <c r="I144" s="9">
-        <v>1951219</v>
+        <v>2584814</v>
       </c>
       <c r="J144" s="9">
-        <v>2584814</v>
+        <v>478036</v>
       </c>
       <c r="K144" s="9">
-        <v>478036</v>
+        <v>870212</v>
       </c>
       <c r="L144" s="9">
-        <v>870212</v>
+        <v>711222</v>
       </c>
       <c r="M144" s="9">
-        <v>711222</v>
+        <v>162737</v>
       </c>
       <c r="N144" s="9">
-        <v>162737</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1609370</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
@@ -5571,11 +5579,11 @@
       <c r="F145" s="11">
         <v>0</v>
       </c>
-      <c r="G145" s="11">
-        <v>0</v>
-      </c>
-      <c r="H145" s="11" t="s">
-        <v>17</v>
+      <c r="G145" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="11">
+        <v>0</v>
       </c>
       <c r="I145" s="11">
         <v>0</v>
@@ -5596,12 +5604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9" t="s">
@@ -5619,11 +5627,11 @@
       <c r="I146" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J146" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="9">
-        <v>0</v>
+      <c r="J146" s="9">
+        <v>0</v>
+      </c>
+      <c r="K146" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L146" s="9" t="s">
         <v>17</v>
@@ -5635,34 +5643,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
-        <v>1453</v>
+        <v>-1453</v>
       </c>
       <c r="F147" s="11">
-        <v>-1453</v>
-      </c>
-      <c r="G147" s="11">
         <v>20919</v>
       </c>
+      <c r="G147" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H147" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I147" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J147" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K147" s="11">
-        <v>0</v>
+      <c r="J147" s="11">
+        <v>0</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L147" s="11" t="s">
         <v>17</v>
@@ -5674,55 +5682,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>1909</v>
+        <v>4361</v>
       </c>
       <c r="F148" s="9">
-        <v>4361</v>
-      </c>
-      <c r="G148" s="9">
         <v>699</v>
       </c>
-      <c r="H148" s="9" t="s">
-        <v>17</v>
+      <c r="G148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="9">
+        <v>0</v>
       </c>
       <c r="I148" s="9">
-        <v>0</v>
+        <v>47244</v>
       </c>
       <c r="J148" s="9">
-        <v>47244</v>
+        <v>-39540</v>
       </c>
       <c r="K148" s="9">
-        <v>-39540</v>
+        <v>34382</v>
       </c>
       <c r="L148" s="9">
-        <v>34382</v>
+        <v>-17690</v>
       </c>
       <c r="M148" s="9">
-        <v>-17690</v>
+        <v>11656</v>
       </c>
       <c r="N148" s="9">
-        <v>11656</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5551</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11">
-        <v>0</v>
+      <c r="E149" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>17</v>
@@ -5736,11 +5744,11 @@
       <c r="I149" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J149" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K149" s="11">
-        <v>0</v>
+      <c r="J149" s="11">
+        <v>0</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L149" s="11" t="s">
         <v>17</v>
@@ -5752,12 +5760,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9" t="s">
@@ -5775,11 +5783,11 @@
       <c r="I150" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J150" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K150" s="9">
-        <v>0</v>
+      <c r="J150" s="9">
+        <v>0</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L150" s="9" t="s">
         <v>17</v>
@@ -5791,35 +5799,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
-        <v>2085274</v>
+        <v>-521147</v>
       </c>
       <c r="F151" s="11">
-        <v>-521147</v>
+        <v>5312122</v>
       </c>
       <c r="G151" s="11">
-        <v>5312122</v>
+        <v>3282407</v>
       </c>
       <c r="H151" s="11">
-        <v>3282407</v>
+        <v>1024224</v>
       </c>
       <c r="I151" s="11">
-        <v>1024224</v>
+        <v>586634</v>
       </c>
       <c r="J151" s="11">
-        <v>586634</v>
-      </c>
-      <c r="K151" s="11">
         <v>4042528</v>
       </c>
+      <c r="K151" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L151" s="11" t="s">
         <v>17</v>
       </c>
@@ -5830,12 +5838,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9" t="s">
@@ -5853,11 +5861,11 @@
       <c r="I152" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J152" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K152" s="9">
-        <v>0</v>
+      <c r="J152" s="9">
+        <v>0</v>
+      </c>
+      <c r="K152" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L152" s="9" t="s">
         <v>17</v>
@@ -5869,41 +5877,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15">
-        <v>7133885</v>
+        <v>1113886</v>
       </c>
       <c r="F153" s="15">
-        <v>1113886</v>
+        <v>16914578</v>
       </c>
       <c r="G153" s="15">
-        <v>16914578</v>
+        <v>9776745</v>
       </c>
       <c r="H153" s="15">
-        <v>9776745</v>
+        <v>12181791</v>
       </c>
       <c r="I153" s="15">
-        <v>12181791</v>
+        <v>6190282</v>
       </c>
       <c r="J153" s="15">
-        <v>6190282</v>
+        <v>4449944</v>
       </c>
       <c r="K153" s="15">
-        <v>4449944</v>
+        <v>22824077</v>
       </c>
       <c r="L153" s="15">
-        <v>22824077</v>
+        <v>15996162</v>
       </c>
       <c r="M153" s="15">
-        <v>15996162</v>
+        <v>2340705</v>
       </c>
       <c r="N153" s="15">
-        <v>2340705</v>
+        <v>-2221515</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/palayesh/shavan/product/quarterly.xlsx
+++ b/database/industries/palayesh/shavan/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\palayesh\shavan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C725F4EB-67AA-4B8C-8C10-3EF0C34F7FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE734968-F806-4607-BE1A-046C224FF2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -850,7 +850,7 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>399856</v>
+        <v>155495</v>
       </c>
       <c r="F11" s="11">
         <v>151315</v>
@@ -1587,7 +1587,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>1205515</v>
+        <v>961154</v>
       </c>
       <c r="F30" s="13">
         <v>1170647</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>436084</v>
+        <v>138444</v>
       </c>
       <c r="F37" s="11">
         <v>116294</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>555528</v>
+        <v>249950</v>
       </c>
       <c r="F39" s="11">
         <v>-25540</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>22791</v>
+        <v>5385</v>
       </c>
       <c r="F41" s="11">
         <v>16004</v>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>174389</v>
+        <v>92101</v>
       </c>
       <c r="F46" s="9">
         <v>133167</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>-474</v>
       </c>
       <c r="F51" s="11">
         <v>1810</v>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>1923</v>
+        <v>930</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>465679</v>
+        <v>167599</v>
       </c>
       <c r="F55" s="11">
         <v>222589</v>
@@ -2538,7 +2538,7 @@
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>1656394</v>
+        <v>653935</v>
       </c>
       <c r="F57" s="15">
         <v>464324</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>0</v>
+        <v>-14535</v>
       </c>
       <c r="F78" s="11">
         <v>74020</v>
@@ -3491,7 +3491,7 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>37430532</v>
+        <v>37415997</v>
       </c>
       <c r="F84" s="15">
         <v>63734615</v>
